--- a/backtesting/sold_stats.xlsx
+++ b/backtesting/sold_stats.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,33 +472,30 @@
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Estrategia</t>
         </is>
       </c>
+      <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>S&amp;P-500</t>
+        </is>
+      </c>
       <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;P-500</t>
-        </is>
-      </c>
+      <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>q days</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>position</t>
         </is>
@@ -533,71 +530,56 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>%30d</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>%60d</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>%90d</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>%180d</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>%total</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
           <t>%30d</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>%60d</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>%90d</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>%180d</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>%total</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>%30d</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>%60d</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>%90d</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>%180d</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>%total</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr"/>
-      <c r="U2" s="1" t="inlineStr"/>
+      <c r="Q2" s="1" t="inlineStr"/>
+      <c r="R2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -613,37 +595,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03301405315785778</v>
+        <v>0.0330133317833544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03301405315785778</v>
+        <v>0.0330133317833544</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03301405315785778</v>
+        <v>0.0330133317833544</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03301405315785778</v>
+        <v>0.0330133317833544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03301405315785778</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>0.0330133317833544</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.03301333178335431</v>
+      </c>
       <c r="H4" t="n">
-        <v>-0.03301405315785784</v>
+        <v>-0.03301333178335431</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03301405315785784</v>
+        <v>-0.03301333178335431</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.03301405315785784</v>
+        <v>-0.03301333178335431</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.03301405315785784</v>
+        <v>-0.03301333178335431</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.03301405315785784</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0.01498041416408217</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01498041416408217</v>
+      </c>
       <c r="N4" t="n">
         <v>0.01498041416408217</v>
       </c>
@@ -654,16 +640,9 @@
         <v>0.01498041416408217</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01498041416408217</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01498041416408217</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -674,39 +653,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1766045233187878</v>
+        <v>-0.1766045757878838</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1197597146268833</v>
+        <v>-0.1197596621577874</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1197597146268833</v>
+        <v>-0.1197596621577874</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1197597146268833</v>
+        <v>-0.1197596621577874</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1197597146268833</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>-0.1197596621577874</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1103545280867575</v>
+      </c>
       <c r="H5" t="n">
-        <v>0.1103545744474863</v>
+        <v>0.02195399450110957</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0219541920211485</v>
+        <v>0.02195399450110957</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0219541920211485</v>
+        <v>0.02195399450110957</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0219541920211485</v>
+        <v>0.02195399450110957</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0219541920211485</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>-0.2325962320383827</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.1742805798272869</v>
+      </c>
       <c r="N5" t="n">
-        <v>-0.2325962320383827</v>
+        <v>-0.1742805798272869</v>
       </c>
       <c r="O5" t="n">
         <v>-0.1742805798272869</v>
@@ -715,16 +698,9 @@
         <v>-0.1742805798272869</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1742805798272869</v>
+        <v>42</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1742805798272869</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>42</v>
-      </c>
-      <c r="U5" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -735,37 +711,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02370015768937888</v>
+        <v>0.02370041239313954</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02370015768937888</v>
+        <v>0.02370041239313954</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02370015768937888</v>
+        <v>0.02370041239313954</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02370015768937888</v>
+        <v>0.02370041239313954</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02370015768937888</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>0.02370041239313954</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.02370041239313942</v>
+      </c>
       <c r="H6" t="n">
-        <v>-0.02370015768937897</v>
+        <v>-0.02370041239313942</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02370015768937897</v>
+        <v>-0.02370041239313942</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.02370015768937897</v>
+        <v>-0.02370041239313942</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02370015768937897</v>
+        <v>-0.02370041239313942</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.02370015768937897</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0.007395138795039487</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.007395138795039487</v>
+      </c>
       <c r="N6" t="n">
         <v>0.007395138795039487</v>
       </c>
@@ -776,16 +756,9 @@
         <v>0.007395138795039487</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.007395138795039487</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>0.007395138795039487</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -810,7 +783,9 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
@@ -826,7 +801,9 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
@@ -840,13 +817,6 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -857,37 +827,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01287080940492669</v>
+        <v>-0.0128707430270172</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01287080940492669</v>
+        <v>-0.0128707430270172</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01287080940492669</v>
+        <v>-0.0128707430270172</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01287080940492669</v>
+        <v>-0.0128707430270172</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01287080940492669</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>-0.0128707430270172</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00338898890854252</v>
+      </c>
       <c r="H8" t="n">
-        <v>0.00338906190569909</v>
+        <v>0.00338898890854252</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00338906190569909</v>
+        <v>0.00338898890854252</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00338906190569909</v>
+        <v>0.00338898890854252</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00338906190569909</v>
+        <v>0.00338898890854252</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00338906190569909</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>-0.01057969536292553</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.01057969536292553</v>
+      </c>
       <c r="N8" t="n">
         <v>-0.01057969536292553</v>
       </c>
@@ -898,16 +872,9 @@
         <v>-0.01057969536292553</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.01057969536292553</v>
+        <v>21</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.01057969536292553</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>21</v>
-      </c>
-      <c r="U8" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -932,7 +899,9 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
@@ -948,7 +917,9 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
@@ -962,13 +933,6 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -979,37 +943,41 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03468356079015607</v>
+        <v>0.03468362848362434</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03468356079015607</v>
+        <v>0.03468362848362434</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03468356079015607</v>
+        <v>0.03468362848362434</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03468356079015607</v>
+        <v>0.03468362848362434</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03468356079015607</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>0.03468362848362434</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.04314846155411243</v>
+      </c>
       <c r="H10" t="n">
-        <v>-0.04314839884144684</v>
+        <v>-0.04314846155411243</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04314839884144684</v>
+        <v>-0.04314846155411243</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.04314839884144684</v>
+        <v>-0.04314846155411243</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.04314839884144684</v>
+        <v>-0.04314846155411243</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.04314839884144684</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0.01300288278968429</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01300288278968429</v>
+      </c>
       <c r="N10" t="n">
         <v>0.01300288278968429</v>
       </c>
@@ -1020,16 +988,9 @@
         <v>0.01300288278968429</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01300288278968429</v>
+        <v>13</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01300288278968429</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>13</v>
-      </c>
-      <c r="U10" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1040,37 +1001,41 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0123296605354067</v>
+        <v>0.01232952553419641</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0123296605354067</v>
+        <v>0.01232952553419641</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0123296605354067</v>
+        <v>0.01232952553419641</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0123296605354067</v>
+        <v>0.01232952553419641</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0123296605354067</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>0.01232952553419641</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.01225744776985769</v>
+      </c>
       <c r="H11" t="n">
-        <v>-0.01225758112372423</v>
+        <v>-0.01225744776985769</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01225758112372423</v>
+        <v>-0.01225744776985769</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01225758112372423</v>
+        <v>-0.01225744776985769</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.01225758112372423</v>
+        <v>-0.01225744776985769</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.01225758112372423</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0.0008087631430726378</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0008087631430726378</v>
+      </c>
       <c r="N11" t="n">
         <v>0.0008087631430726378</v>
       </c>
@@ -1081,16 +1046,9 @@
         <v>0.0008087631430726378</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0008087631430726378</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0008087631430726378</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1115,7 +1073,9 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
@@ -1131,7 +1091,9 @@
       <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
@@ -1145,13 +1107,6 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1162,37 +1117,41 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01622650569889318</v>
+        <v>0.01622656507698144</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01622650569889318</v>
+        <v>0.01622656507698144</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01622650569889318</v>
+        <v>0.01622656507698144</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01622650569889318</v>
+        <v>0.01622656507698144</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01622650569889318</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>0.01622656507698144</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.01622656507698151</v>
+      </c>
       <c r="H13" t="n">
-        <v>-0.01622650569889331</v>
+        <v>-0.01622656507698151</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01622650569889331</v>
+        <v>-0.01622656507698151</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01622650569889331</v>
+        <v>-0.01622656507698151</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01622650569889331</v>
+        <v>-0.01622656507698151</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01622650569889331</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0.002275641737906651</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.002275641737906651</v>
+      </c>
       <c r="N13" t="n">
         <v>0.002275641737906651</v>
       </c>
@@ -1203,16 +1162,9 @@
         <v>0.002275641737906651</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002275641737906651</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0.002275641737906651</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1223,37 +1175,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03846152435102873</v>
+        <v>0.03846158784832554</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03846152435102873</v>
+        <v>0.03846158784832554</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03846152435102873</v>
+        <v>0.03846158784832554</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03846152435102873</v>
+        <v>0.03846158784832554</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03846152435102873</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>0.03846158784832554</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.03810496062426914</v>
+      </c>
       <c r="H14" t="n">
-        <v>-0.03810489449435876</v>
+        <v>-0.03810496062426914</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.03810489449435876</v>
+        <v>-0.03810496062426914</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.03810489449435876</v>
+        <v>-0.03810496062426914</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.03810489449435876</v>
+        <v>-0.03810496062426914</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.03810489449435876</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0.02218539047468984</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.02218539047468984</v>
+      </c>
       <c r="N14" t="n">
         <v>0.02218539047468984</v>
       </c>
@@ -1264,16 +1220,9 @@
         <v>0.02218539047468984</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02218539047468984</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02218539047468984</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>5</v>
-      </c>
-      <c r="U14" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1298,7 +1247,9 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
@@ -1314,7 +1265,9 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
@@ -1328,13 +1281,6 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1345,39 +1291,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1059318792593239</v>
+        <v>-0.1059317767232377</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.07239424249906561</v>
+        <v>-0.0723940787742848</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.07239424249906561</v>
+        <v>-0.0723940787742848</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.07239424249906561</v>
+        <v>-0.0723940787742848</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.07239424249906561</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>-0.0723940787742848</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1063804032995568</v>
+      </c>
       <c r="H16" t="n">
-        <v>0.1063805700533813</v>
+        <v>0.06556820492884173</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06556842985748663</v>
+        <v>0.06556820492884173</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06556842985748663</v>
+        <v>0.06556820492884173</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06556842985748663</v>
+        <v>0.06556820492884173</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06556842985748663</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0.002162738821413131</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.007085409600656794</v>
+      </c>
       <c r="N16" t="n">
-        <v>0.002162738821413131</v>
+        <v>0.007085409600656794</v>
       </c>
       <c r="O16" t="n">
         <v>0.007085409600656794</v>
@@ -1386,16 +1336,9 @@
         <v>0.007085409600656794</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.007085409600656794</v>
+        <v>32</v>
       </c>
       <c r="R16" t="n">
-        <v>0.007085409600656794</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>32</v>
-      </c>
-      <c r="U16" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1406,37 +1349,41 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02833567271944142</v>
+        <v>0.02833573924497977</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02833567271944142</v>
+        <v>0.02833573924497977</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02833567271944142</v>
+        <v>0.02833573924497977</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02833567271944142</v>
+        <v>0.02833573924497977</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02833567271944142</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>0.02833573924497977</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.02833573924497966</v>
+      </c>
       <c r="H17" t="n">
-        <v>-0.02833567271944145</v>
+        <v>-0.02833573924497966</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02833567271944145</v>
+        <v>-0.02833573924497966</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.02833567271944145</v>
+        <v>-0.02833573924497966</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.02833567271944145</v>
+        <v>-0.02833573924497966</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02833567271944145</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0.007025118077311674</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.007025118077311674</v>
+      </c>
       <c r="N17" t="n">
         <v>0.007025118077311674</v>
       </c>
@@ -1447,16 +1394,9 @@
         <v>0.007025118077311674</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.007025118077311674</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>0.007025118077311674</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1481,23 +1421,27 @@
       <c r="F18" t="n">
         <v>0.01293642107713304</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>-0.01329580724427629</v>
+      </c>
       <c r="H18" t="n">
-        <v>-0.01329580278657327</v>
+        <v>-0.01329580724427629</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.01329580278657327</v>
+        <v>-0.01329580724427629</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01329580278657327</v>
+        <v>-0.01329580724427629</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.01329580278657327</v>
+        <v>-0.01329580724427629</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01329580278657327</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0.01620911844172447</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.01620911844172447</v>
+      </c>
       <c r="N18" t="n">
         <v>0.01620911844172447</v>
       </c>
@@ -1508,16 +1452,9 @@
         <v>0.01620911844172447</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01620911844172447</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01620911844172447</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>6</v>
-      </c>
-      <c r="U18" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1528,39 +1465,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05483294519153574</v>
+        <v>-0.05483311446917565</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.04856014659507771</v>
+        <v>-0.04856008234024527</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04856014659507771</v>
+        <v>-0.04856008234024527</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04856014659507771</v>
+        <v>-0.04856008234024527</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.04856014659507771</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>-0.04856008234024527</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.05295961775297235</v>
+      </c>
       <c r="H19" t="n">
-        <v>0.05295945087081922</v>
+        <v>0.04548428940347615</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04548438748808768</v>
+        <v>0.04548428940347615</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04548438748808768</v>
+        <v>0.04548428940347615</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04548438748808768</v>
+        <v>0.04548428940347615</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04548438748808768</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0.003687387091093904</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.008879799239929154</v>
+      </c>
       <c r="N19" t="n">
-        <v>0.003687387091093904</v>
+        <v>0.008879799239929154</v>
       </c>
       <c r="O19" t="n">
         <v>0.008879799239929154</v>
@@ -1569,16 +1510,9 @@
         <v>0.008879799239929154</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.008879799239929154</v>
+        <v>32</v>
       </c>
       <c r="R19" t="n">
-        <v>0.008879799239929154</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>32</v>
-      </c>
-      <c r="U19" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1603,7 +1537,9 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -1619,7 +1555,9 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
@@ -1633,13 +1571,6 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1650,37 +1581,41 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.019166098703009</v>
+        <v>0.01916620666372392</v>
       </c>
       <c r="C21" t="n">
-        <v>0.019166098703009</v>
+        <v>0.01916620666372392</v>
       </c>
       <c r="D21" t="n">
-        <v>0.019166098703009</v>
+        <v>0.01916620666372392</v>
       </c>
       <c r="E21" t="n">
-        <v>0.019166098703009</v>
+        <v>0.01916620666372392</v>
       </c>
       <c r="F21" t="n">
-        <v>0.019166098703009</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>0.01916620666372392</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.01924334391789101</v>
+      </c>
       <c r="H21" t="n">
-        <v>-0.01924323477530964</v>
+        <v>-0.01924334391789101</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01924323477530964</v>
+        <v>-0.01924334391789101</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01924323477530964</v>
+        <v>-0.01924334391789101</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01924323477530964</v>
+        <v>-0.01924334391789101</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01924323477530964</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0.00642548080392154</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.00642548080392154</v>
+      </c>
       <c r="N21" t="n">
         <v>0.00642548080392154</v>
       </c>
@@ -1691,16 +1626,9 @@
         <v>0.00642548080392154</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.00642548080392154</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>0.00642548080392154</v>
-      </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>3</v>
-      </c>
-      <c r="U21" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1711,37 +1639,41 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01015699543492192</v>
+        <v>0.01015667896503799</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01015699543492192</v>
+        <v>0.01015667896503799</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01015699543492192</v>
+        <v>0.01015667896503799</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01015699543492192</v>
+        <v>0.01015667896503799</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01015699543492192</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.01015667896503799</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.01015667896503807</v>
+      </c>
       <c r="H22" t="n">
-        <v>-0.01015699543492183</v>
+        <v>-0.01015667896503807</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01015699543492183</v>
+        <v>-0.01015667896503807</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01015699543492183</v>
+        <v>-0.01015667896503807</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.01015699543492183</v>
+        <v>-0.01015667896503807</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.01015699543492183</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0.008141567655737876</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.008141567655737876</v>
+      </c>
       <c r="N22" t="n">
         <v>0.008141567655737876</v>
       </c>
@@ -1752,16 +1684,9 @@
         <v>0.008141567655737876</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.008141567655737876</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>0.008141567655737876</v>
-      </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1786,7 +1711,9 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -1802,7 +1729,9 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
@@ -1816,13 +1745,6 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1833,39 +1755,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.05777329642008092</v>
+        <v>-0.05777339392133832</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0387161779427381</v>
+        <v>-0.03871627741601879</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0387161779427381</v>
+        <v>-0.03871627741601879</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0387161779427381</v>
+        <v>-0.03871627741601879</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0387161779427381</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>-0.03871627741601879</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.05794968682858052</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.05794958431551253</v>
+        <v>0.0365519993629652</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03655189892328752</v>
+        <v>0.0365519993629652</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03655189892328752</v>
+        <v>0.0365519993629652</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03655189892328752</v>
+        <v>0.0365519993629652</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03655189892328752</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>-0.02348098368884738</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.006818540161729308</v>
+      </c>
       <c r="N24" t="n">
-        <v>-0.02348098368884738</v>
+        <v>-0.006818540161729308</v>
       </c>
       <c r="O24" t="n">
         <v>-0.006818540161729308</v>
@@ -1874,16 +1800,9 @@
         <v>-0.006818540161729308</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.006818540161729308</v>
+        <v>31</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.006818540161729308</v>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="n">
-        <v>31</v>
-      </c>
-      <c r="U24" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1894,37 +1813,41 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01433715503500164</v>
+        <v>0.01433705053221701</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01433715503500164</v>
+        <v>0.01433705053221701</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01433715503500164</v>
+        <v>0.01433705053221701</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01433715503500164</v>
+        <v>0.01433705053221701</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01433715503500164</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>0.01433705053221701</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.01433705053221695</v>
+      </c>
       <c r="H25" t="n">
-        <v>-0.01433715503500151</v>
+        <v>-0.01433705053221695</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.01433715503500151</v>
+        <v>-0.01433705053221695</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.01433715503500151</v>
+        <v>-0.01433705053221695</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.01433715503500151</v>
+        <v>-0.01433705053221695</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.01433715503500151</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0.007222656026415437</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.007222656026415437</v>
+      </c>
       <c r="N25" t="n">
         <v>0.007222656026415437</v>
       </c>
@@ -1935,16 +1858,9 @@
         <v>0.007222656026415437</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.007222656026415437</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>0.007222656026415437</v>
-      </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1955,37 +1871,41 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.009709225453210239</v>
+        <v>-0.009709226325506597</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.009709225453210239</v>
+        <v>-0.009709226325506597</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.009709225453210239</v>
+        <v>-0.009709226325506597</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.009709225453210239</v>
+        <v>-0.009709226325506597</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.009709225453210239</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+        <v>-0.009709226325506597</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.002971167616122197</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.002971187590117428</v>
+        <v>0.002971167616122197</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002971187590117428</v>
+        <v>0.002971167616122197</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002971187590117428</v>
+        <v>0.002971167616122197</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002971187590117428</v>
+        <v>0.002971167616122197</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002971187590117428</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>-0.0562599882921879</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.0562599882921879</v>
+      </c>
       <c r="N26" t="n">
         <v>-0.0562599882921879</v>
       </c>
@@ -1996,16 +1916,9 @@
         <v>-0.0562599882921879</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.0562599882921879</v>
+        <v>22</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.0562599882921879</v>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="n">
-        <v>22</v>
-      </c>
-      <c r="U26" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2030,7 +1943,9 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
@@ -2046,7 +1961,9 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
@@ -2060,13 +1977,6 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2077,37 +1987,41 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0198447569779934</v>
+        <v>-0.0198445743117829</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0198447569779934</v>
+        <v>-0.0198445743117829</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0198447569779934</v>
+        <v>-0.0198445743117829</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0198447569779934</v>
+        <v>-0.0198445743117829</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0198447569779934</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+        <v>-0.0198445743117829</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01162933473166023</v>
+      </c>
       <c r="H28" t="n">
-        <v>0.01162950610632011</v>
+        <v>0.01162933473166023</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01162950610632011</v>
+        <v>0.01162933473166023</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01162950610632011</v>
+        <v>0.01162933473166023</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01162950610632011</v>
+        <v>0.01162933473166023</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01162950610632011</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0.02627119157881122</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.02627119157881122</v>
+      </c>
       <c r="N28" t="n">
         <v>0.02627119157881122</v>
       </c>
@@ -2118,16 +2032,9 @@
         <v>0.02627119157881122</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02627119157881122</v>
+        <v>28</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02627119157881122</v>
-      </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="n">
-        <v>28</v>
-      </c>
-      <c r="U28" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2138,37 +2045,41 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.009781547915252544</v>
+        <v>-0.009781822265506342</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.009781547915252544</v>
+        <v>-0.009781822265506342</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.009781547915252544</v>
+        <v>-0.009781822265506342</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.009781547915252544</v>
+        <v>-0.009781822265506342</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.009781547915252544</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+        <v>-0.009781822265506342</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.001060515023214379</v>
+      </c>
       <c r="H29" t="n">
-        <v>0.00106022804292336</v>
+        <v>0.001060515023214379</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00106022804292336</v>
+        <v>0.001060515023214379</v>
       </c>
       <c r="J29" t="n">
-        <v>0.00106022804292336</v>
+        <v>0.001060515023214379</v>
       </c>
       <c r="K29" t="n">
-        <v>0.00106022804292336</v>
+        <v>0.001060515023214379</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00106022804292336</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>-0.02212197276075958</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.02212197276075958</v>
+      </c>
       <c r="N29" t="n">
         <v>-0.02212197276075958</v>
       </c>
@@ -2179,16 +2090,9 @@
         <v>-0.02212197276075958</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.02212197276075958</v>
+        <v>22</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.02212197276075958</v>
-      </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="n">
-        <v>22</v>
-      </c>
-      <c r="U29" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2199,37 +2103,41 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0485757615900269</v>
+        <v>-0.04857586433098521</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0485757615900269</v>
+        <v>-0.04857586433098521</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0485757615900269</v>
+        <v>-0.04857586433098521</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0485757615900269</v>
+        <v>-0.04857586433098521</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0485757615900269</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+        <v>-0.04857586433098521</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03588727904577551</v>
+      </c>
       <c r="H30" t="n">
-        <v>0.03588712951699131</v>
+        <v>0.03588727904577551</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03588712951699131</v>
+        <v>0.03588727904577551</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03588712951699131</v>
+        <v>0.03588727904577551</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03588712951699131</v>
+        <v>0.03588727904577551</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03588712951699131</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0.008464107240129788</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.008464107240129788</v>
+      </c>
       <c r="N30" t="n">
         <v>0.008464107240129788</v>
       </c>
@@ -2240,16 +2148,9 @@
         <v>0.008464107240129788</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.008464107240129788</v>
+        <v>21</v>
       </c>
       <c r="R30" t="n">
-        <v>0.008464107240129788</v>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="n">
-        <v>21</v>
-      </c>
-      <c r="U30" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2274,7 +2175,9 @@
       <c r="F31" t="n">
         <v>0</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
@@ -2290,7 +2193,9 @@
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
@@ -2304,13 +2209,6 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2321,37 +2219,41 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03303433804560515</v>
+        <v>0.03303445784925177</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03303433804560515</v>
+        <v>0.03303445784925177</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03303433804560515</v>
+        <v>0.03303445784925177</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03303433804560515</v>
+        <v>0.03303445784925177</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03303433804560515</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+        <v>0.03303445784925177</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.03755485318052759</v>
+      </c>
       <c r="H32" t="n">
-        <v>-0.03755474926798457</v>
+        <v>-0.03755485318052759</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.03755474926798457</v>
+        <v>-0.03755485318052759</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.03755474926798457</v>
+        <v>-0.03755485318052759</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.03755474926798457</v>
+        <v>-0.03755485318052759</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.03755474926798457</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0.00278909843288142</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.00278909843288142</v>
+      </c>
       <c r="N32" t="n">
         <v>0.00278909843288142</v>
       </c>
@@ -2362,16 +2264,9 @@
         <v>0.00278909843288142</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.00278909843288142</v>
+        <v>14</v>
       </c>
       <c r="R32" t="n">
-        <v>0.00278909843288142</v>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="n">
-        <v>14</v>
-      </c>
-      <c r="U32" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2396,23 +2291,27 @@
       <c r="F33" t="n">
         <v>-0.002154904768682833</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0.001572079210580002</v>
+      </c>
       <c r="H33" t="n">
-        <v>0.001572094626613268</v>
+        <v>0.001572079210580002</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001572094626613268</v>
+        <v>0.001572079210580002</v>
       </c>
       <c r="J33" t="n">
-        <v>0.001572094626613268</v>
+        <v>0.001572079210580002</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001572094626613268</v>
+        <v>0.001572079210580002</v>
       </c>
       <c r="L33" t="n">
-        <v>0.001572094626613268</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0.001702091967179493</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.001702091967179493</v>
+      </c>
       <c r="N33" t="n">
         <v>0.001702091967179493</v>
       </c>
@@ -2423,16 +2322,9 @@
         <v>0.001702091967179493</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.001702091967179493</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>0.001702091967179493</v>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="n">
-        <v>2</v>
-      </c>
-      <c r="U33" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2443,39 +2335,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.07150840109114344</v>
+        <v>-0.07150831255048699</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.08743346517760642</v>
+        <v>-0.08743347351523319</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.08743346517760642</v>
+        <v>-0.08743347351523319</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.08743346517760642</v>
+        <v>-0.08743347351523319</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.08743346517760642</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>-0.08743347351523319</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.06798321380859945</v>
+      </c>
       <c r="H34" t="n">
-        <v>0.06798329163312156</v>
+        <v>0.07548400075704031</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07548392774850819</v>
+        <v>0.07548400075704031</v>
       </c>
       <c r="J34" t="n">
-        <v>0.07548392774850819</v>
+        <v>0.07548400075704031</v>
       </c>
       <c r="K34" t="n">
-        <v>0.07548392774850819</v>
+        <v>0.07548400075704031</v>
       </c>
       <c r="L34" t="n">
-        <v>0.07548392774850819</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>-0.07730096934596994</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.06893748093129366</v>
+      </c>
       <c r="N34" t="n">
-        <v>-0.07730096934596994</v>
+        <v>-0.06893748093129366</v>
       </c>
       <c r="O34" t="n">
         <v>-0.06893748093129366</v>
@@ -2484,16 +2380,9 @@
         <v>-0.06893748093129366</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.06893748093129366</v>
+        <v>53</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.06893748093129366</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="n">
-        <v>53</v>
-      </c>
-      <c r="U34" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2504,37 +2393,41 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.05928575900502463</v>
+        <v>0.05928598719226146</v>
       </c>
       <c r="C35" t="n">
-        <v>0.05928575900502463</v>
+        <v>0.05928598719226146</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05928575900502463</v>
+        <v>0.05928598719226146</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05928575900502463</v>
+        <v>0.05928598719226146</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05928575900502463</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+        <v>0.05928598719226146</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.06450709415250841</v>
+      </c>
       <c r="H35" t="n">
-        <v>-0.06450688140383407</v>
+        <v>-0.06450709415250841</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.06450688140383407</v>
+        <v>-0.06450709415250841</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.06450688140383407</v>
+        <v>-0.06450709415250841</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.06450688140383407</v>
+        <v>-0.06450709415250841</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.06450688140383407</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0.06357183450004722</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.06357183450004722</v>
+      </c>
       <c r="N35" t="n">
         <v>0.06357183450004722</v>
       </c>
@@ -2545,16 +2438,9 @@
         <v>0.06357183450004722</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.06357183450004722</v>
+        <v>7</v>
       </c>
       <c r="R35" t="n">
-        <v>0.06357183450004722</v>
-      </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="n">
-        <v>7</v>
-      </c>
-      <c r="U35" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2565,37 +2451,41 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.04859397553503174</v>
+        <v>0.04859375787323529</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04859397553503174</v>
+        <v>0.04859375787323529</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04859397553503174</v>
+        <v>0.04859375787323529</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04859397553503174</v>
+        <v>0.04859375787323529</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04859397553503174</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+        <v>0.04859375787323529</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.04859375787323547</v>
+      </c>
       <c r="H36" t="n">
-        <v>-0.04859397553503169</v>
+        <v>-0.04859375787323547</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.04859397553503169</v>
+        <v>-0.04859375787323547</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.04859397553503169</v>
+        <v>-0.04859375787323547</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.04859397553503169</v>
+        <v>-0.04859375787323547</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.04859397553503169</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0.03094787239738904</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.03094787239738904</v>
+      </c>
       <c r="N36" t="n">
         <v>0.03094787239738904</v>
       </c>
@@ -2606,16 +2496,9 @@
         <v>0.03094787239738904</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.03094787239738904</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>0.03094787239738904</v>
-      </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="n">
-        <v>1</v>
-      </c>
-      <c r="U36" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2629,36 +2512,40 @@
         <v>-0.08031789493259842</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.05285941817588019</v>
+        <v>-0.05285930916738549</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.05285941817588019</v>
+        <v>-0.05285930916738549</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.05285941817588019</v>
+        <v>-0.05285930916738549</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.05285941817588019</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+        <v>-0.05285930916738549</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.07712042210073557</v>
+      </c>
       <c r="H37" t="n">
-        <v>0.07712041307448145</v>
+        <v>0.04538916221576123</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04538928316091431</v>
+        <v>0.04538916221576123</v>
       </c>
       <c r="J37" t="n">
-        <v>0.04538928316091431</v>
+        <v>0.04538916221576123</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04538928316091431</v>
+        <v>0.04538916221576123</v>
       </c>
       <c r="L37" t="n">
-        <v>0.04538928316091431</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>-0.009873064150092817</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.009072422991738023</v>
+      </c>
       <c r="N37" t="n">
-        <v>-0.009873064150092817</v>
+        <v>0.009072422991738023</v>
       </c>
       <c r="O37" t="n">
         <v>0.009072422991738023</v>
@@ -2667,16 +2554,9 @@
         <v>0.009072422991738023</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.009072422991738023</v>
+        <v>35</v>
       </c>
       <c r="R37" t="n">
-        <v>0.009072422991738023</v>
-      </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="n">
-        <v>35</v>
-      </c>
-      <c r="U37" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2687,37 +2567,41 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01423671948270718</v>
+        <v>0.01423692698300459</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01423671948270718</v>
+        <v>0.01423692698300459</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01423671948270718</v>
+        <v>0.01423692698300459</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01423671948270718</v>
+        <v>0.01423692698300459</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01423671948270718</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+        <v>0.01423692698300459</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.0158762288059379</v>
+      </c>
       <c r="H38" t="n">
-        <v>-0.01587602619409461</v>
+        <v>-0.0158762288059379</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.01587602619409461</v>
+        <v>-0.0158762288059379</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.01587602619409461</v>
+        <v>-0.0158762288059379</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.01587602619409461</v>
+        <v>-0.0158762288059379</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.01587602619409461</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0.01367806544195781</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.01367806544195781</v>
+      </c>
       <c r="N38" t="n">
         <v>0.01367806544195781</v>
       </c>
@@ -2728,16 +2612,9 @@
         <v>0.01367806544195781</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01367806544195781</v>
+        <v>9</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01367806544195781</v>
-      </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="n">
-        <v>9</v>
-      </c>
-      <c r="U38" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2762,7 +2639,9 @@
       <c r="F39" t="n">
         <v>0</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
@@ -2778,7 +2657,9 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
@@ -2792,13 +2673,6 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2823,7 +2697,9 @@
       <c r="F40" t="n">
         <v>0</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
@@ -2839,7 +2715,9 @@
       <c r="L40" t="n">
         <v>0</v>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -2853,13 +2731,6 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2884,23 +2755,27 @@
       <c r="F41" t="n">
         <v>0.02839526850753251</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>-0.02839526850753264</v>
+      </c>
       <c r="H41" t="n">
-        <v>-0.02839526850753262</v>
+        <v>-0.02839526850753264</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.02839526850753262</v>
+        <v>-0.02839526850753264</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.02839526850753262</v>
+        <v>-0.02839526850753264</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.02839526850753262</v>
+        <v>-0.02839526850753264</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.02839526850753262</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0.01956614972249702</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.01956614972249702</v>
+      </c>
       <c r="N41" t="n">
         <v>0.01956614972249702</v>
       </c>
@@ -2911,16 +2786,9 @@
         <v>0.01956614972249702</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01956614972249702</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01956614972249702</v>
-      </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="n">
-        <v>1</v>
-      </c>
-      <c r="U41" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2931,37 +2799,41 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.05616289330532735</v>
+        <v>-0.05616297343843806</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.05616289330532735</v>
+        <v>-0.05616297343843806</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.05616289330532735</v>
+        <v>-0.05616297343843806</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.05616289330532735</v>
+        <v>-0.05616297343843806</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.05616289330532735</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+        <v>-0.05616297343843806</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.05453493921359551</v>
+      </c>
       <c r="H42" t="n">
-        <v>0.05453485544939373</v>
+        <v>0.05453493921359551</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05453485544939373</v>
+        <v>0.05453493921359551</v>
       </c>
       <c r="J42" t="n">
-        <v>0.05453485544939373</v>
+        <v>0.05453493921359551</v>
       </c>
       <c r="K42" t="n">
-        <v>0.05453485544939373</v>
+        <v>0.05453493921359551</v>
       </c>
       <c r="L42" t="n">
-        <v>0.05453485544939373</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>-0.01523361877839722</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.01523361877839722</v>
+      </c>
       <c r="N42" t="n">
         <v>-0.01523361877839722</v>
       </c>
@@ -2972,16 +2844,9 @@
         <v>-0.01523361877839722</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.01523361877839722</v>
+        <v>25</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.01523361877839722</v>
-      </c>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="n">
-        <v>25</v>
-      </c>
-      <c r="U42" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3006,23 +2871,27 @@
       <c r="F43" t="n">
         <v>-0.01835214250426162</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0.01617600623571234</v>
+      </c>
       <c r="H43" t="n">
-        <v>0.01617601493976879</v>
+        <v>0.01617600623571234</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01617601493976879</v>
+        <v>0.01617600623571234</v>
       </c>
       <c r="J43" t="n">
-        <v>0.01617601493976879</v>
+        <v>0.01617600623571234</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01617601493976879</v>
+        <v>0.01617600623571234</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01617601493976879</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>-0.04471132464448227</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.04471132464448227</v>
+      </c>
       <c r="N43" t="n">
         <v>-0.04471132464448227</v>
       </c>
@@ -3033,16 +2902,9 @@
         <v>-0.04471132464448227</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.04471132464448227</v>
+        <v>27</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.04471132464448227</v>
-      </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="n">
-        <v>27</v>
-      </c>
-      <c r="U43" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3053,37 +2915,41 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02712862229467502</v>
+        <v>0.02712871078604494</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02712862229467502</v>
+        <v>0.02712871078604494</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02712862229467502</v>
+        <v>0.02712871078604494</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02712862229467502</v>
+        <v>0.02712871078604494</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02712862229467502</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+        <v>0.02712871078604494</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.02816014419489388</v>
+      </c>
       <c r="H44" t="n">
-        <v>-0.02816006156073107</v>
+        <v>-0.02816014419489388</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.02816006156073107</v>
+        <v>-0.02816014419489388</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.02816006156073107</v>
+        <v>-0.02816014419489388</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.02816006156073107</v>
+        <v>-0.02816014419489388</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.02816006156073107</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0.0221628975804177</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0221628975804177</v>
+      </c>
       <c r="N44" t="n">
         <v>0.0221628975804177</v>
       </c>
@@ -3094,16 +2960,9 @@
         <v>0.0221628975804177</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0221628975804177</v>
+        <v>13</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0221628975804177</v>
-      </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="n">
-        <v>13</v>
-      </c>
-      <c r="U44" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3128,23 +2987,27 @@
       <c r="F45" t="n">
         <v>-0.02289562460102811</v>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0.01993290225467167</v>
+      </c>
       <c r="H45" t="n">
-        <v>0.01993290225467188</v>
+        <v>0.01993290225467167</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01993290225467188</v>
+        <v>0.01993290225467167</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01993290225467188</v>
+        <v>0.01993290225467167</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01993290225467188</v>
+        <v>0.01993290225467167</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01993290225467188</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0.001296390681449291</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.001296390681449291</v>
+      </c>
       <c r="N45" t="n">
         <v>0.001296390681449291</v>
       </c>
@@ -3155,16 +3018,9 @@
         <v>0.001296390681449291</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.001296390681449291</v>
+        <v>23</v>
       </c>
       <c r="R45" t="n">
-        <v>0.001296390681449291</v>
-      </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="n">
-        <v>23</v>
-      </c>
-      <c r="U45" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3189,23 +3045,27 @@
       <c r="F46" t="n">
         <v>0.01305789950019014</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>-0.01308766779074636</v>
+      </c>
       <c r="H46" t="n">
-        <v>-0.01308766779074646</v>
+        <v>-0.01308766779074636</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.01308766779074646</v>
+        <v>-0.01308766779074636</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.01308766779074646</v>
+        <v>-0.01308766779074636</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.01308766779074646</v>
+        <v>-0.01308766779074636</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.01308766779074646</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0.009791720181288047</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.009791720181288047</v>
+      </c>
       <c r="N46" t="n">
         <v>0.009791720181288047</v>
       </c>
@@ -3216,85 +3076,75 @@
         <v>0.009791720181288047</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.009791720181288047</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>0.009791720181288047</v>
-      </c>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="n">
-        <v>5</v>
-      </c>
-      <c r="U46" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2024-02-09/2024-03-15</t>
+          <t>2024-02-09/2024-03-18</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>-0.09594921784669851</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.08594127859033195</v>
+        <v>-0.07310038384114895</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.08594127859033195</v>
+        <v>-0.07310038384114895</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.08594127859033195</v>
+        <v>-0.07310038384114895</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.08594127859033195</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+        <v>-0.07310038384114895</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.103508420695298</v>
+      </c>
       <c r="H47" t="n">
-        <v>0.1035084206952977</v>
+        <v>0.07564291843839274</v>
       </c>
       <c r="I47" t="n">
-        <v>0.09096908831072342</v>
+        <v>0.07564291843839274</v>
       </c>
       <c r="J47" t="n">
-        <v>0.09096908831072342</v>
+        <v>0.07564291843839274</v>
       </c>
       <c r="K47" t="n">
-        <v>0.09096908831072342</v>
+        <v>0.07564291843839274</v>
       </c>
       <c r="L47" t="n">
-        <v>0.09096908831072342</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0.01931323113698513</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.02553218481680066</v>
+      </c>
       <c r="N47" t="n">
-        <v>0.01931323113698513</v>
+        <v>0.02553218481680066</v>
       </c>
       <c r="O47" t="n">
-        <v>0.01800019952407583</v>
+        <v>0.02553218481680066</v>
       </c>
       <c r="P47" t="n">
-        <v>0.01800019952407583</v>
+        <v>0.02553218481680066</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.01800019952407583</v>
+        <v>38</v>
       </c>
       <c r="R47" t="n">
-        <v>0.01800019952407583</v>
-      </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="n">
-        <v>35</v>
-      </c>
-      <c r="U47" t="n">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
